--- a/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>107.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6138</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,20 +550,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>49.54</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.42</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,328 +588,446 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>49.54</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.42</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>001798</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>泰康新回报灵活配置混合A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>90.29</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.46</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>001799</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>泰康新回报灵活配置混合C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>90.29</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>5.46</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002331</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康安泰回报混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009700</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长江添利混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>37.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009701</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长江添利混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>37.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003397</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银华体育文化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>79.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009448</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009449</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005585</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>69.68</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -889,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1058,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1088,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003397</t>
+          <t>008545</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华体育文化灵活配置混合</t>
+          <t>泓德丰润三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>117.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -958,26 +1126,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003412</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘康灵活配置混合C</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>76.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9722</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -986,26 +1164,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009448</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合A</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>107.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009449</t>
+          <t>010864</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合C</t>
+          <t>泓德卓远混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>66.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7634</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1042,25 +1240,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>004965</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德致远混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>53.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0345</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1080,15 +1288,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>89.25</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.46</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002657</t>
+          <t>010865</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合A</t>
+          <t>泓德卓远混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8774</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002658</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合C</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4511</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>008456</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>招商瑞阳股债配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>290012</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合A</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002583</t>
+          <t>003412</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合C</t>
+          <t>鹏华弘康灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010864</t>
+          <t>001798</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泓德卓远混合A</t>
+          <t>泰康新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010865</t>
+          <t>002331</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泓德卓远混合C</t>
+          <t>泰康安泰回报混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001798</t>
+          <t>008457</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰康新回报灵活配置混合A</t>
+          <t>招商瑞阳股债配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001799</t>
+          <t>002657</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰康新回报灵活配置混合C</t>
+          <t>招商安裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002331</t>
+          <t>003397</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰康安泰回报混合</t>
+          <t>银华体育文化灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008456</t>
+          <t>009448</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合A</t>
+          <t>泰康申润一年持有期混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008457</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合C</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008545</t>
+          <t>290012</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>泓德丰润三年持有期混合</t>
+          <t>泰信行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>002658</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合A</t>
+          <t>招商安裕灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>001799</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
+          <t>泰康新回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>004965</t>
+          <t>009449</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泓德致远混合A</t>
+          <t>泰康申润一年持有期混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>49.70</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1546,26 +1924,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>49.70</t>
-        </is>
-      </c>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,6 @@
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>94.09</t>
@@ -1948,6 +1948,668 @@
       </c>
       <c r="H24" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8384</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8423</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2615,4 +2616,780 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4867</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6577</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7756</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3392,4 +3393,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3401,7 +3402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3412,17 +3413,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3432,14 +3453,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.28</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3448,14 +3491,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.01</v>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9932</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3464,14 +3529,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.07</v>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3480,13 +3567,1555 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1686</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6305</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9353</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4482</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华红利回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004480</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝智慧产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5014,7 +5015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5025,17 +5026,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5045,14 +5066,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.31</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5061,14 +5104,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.28</v>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8837</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5077,14 +5142,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.01</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7785</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5093,14 +5180,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.07</v>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5109,13 +5218,621 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5904</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5715,7 +5716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5726,17 +5727,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5746,14 +5767,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.96</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5762,14 +5805,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.31</v>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5778,14 +5843,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.28</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5794,14 +5881,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.01</v>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9939</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5810,14 +5919,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.07</v>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5826,13 +5957,675 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6783</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>12.73</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>10.96</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>23.31</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>14.28</v>
+        <v>23.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>12.01</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>23.07</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.62</v>
       </c>
     </row>
@@ -600,6 +617,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0258</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4529</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5077</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3511</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1375,7 +2056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2075,7 +2756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3687,7 +4368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4463,7 +5144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5125,7 +5806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6048,7 +6729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300251-光线传媒.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>9.460000000000001</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>12.73</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>10.96</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>23.31</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>14.28</v>
+        <v>23.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>12.01</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>23.07</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,616 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6138</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1220,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3730</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6161</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4593</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1280,7 +2851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2056,7 +3627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2756,7 +4327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4368,7 +5939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5144,7 +6715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5806,7 +7377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6727,590 +8298,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001500</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泓德远见回报混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>107.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.6138</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004965</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德致远混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>59.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0510</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004966</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泓德致远混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4060</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002331</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康安泰回报混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1222</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001798</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1076</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003397</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华体育文化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0917</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009448</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0682</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009700</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长江添利混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>37.91</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0604</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0519</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005585</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>69.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009701</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长江添利混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>37.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001799</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康新回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009449</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>